--- a/src/lib/scripts/seed-data/production/targets.xlsx
+++ b/src/lib/scripts/seed-data/production/targets.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10608"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC96B4A2-C5D4-9F47-A6D3-247821D01643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93F730F-21FC-124B-AA76-8B2D949FA091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="27040" windowHeight="16880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="targets template" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,217 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Possible values:
+- form
+- email
+- other</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Possible values:
+- Pre-seed
+- Seed
+- Series A
+- Series B
+- Series C
+- Growth
+- All</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Possible values:
+- B2B SaaS
+- Fintech
+- Healthtech
+- AI/ML
+- Deep tech
+- Climate tech
+- Consumer
+- E-commerce
+- Marketplace
+- Gaming
+- Web3
+- Developer tools
+- Cybersecurity
+- Logistics
+- AdTech
+- PropTech
+- InsurTech
+- Agriculture
+- Automotive
+- Biotechnology
+- Construction
+- Consulting
+- Consumer Goods
+- Education
+- Energy
+- Entertainment
+- Environmental Services
+- Fashion
+- Food &amp; Beverage
+- Government
+- Healthcare Services
+- Hospitality
+- Human Resources
+- Insurance
+- Legal
+- Manufacturing
+- Media
+- Non-profit
+- Pharmaceuticals
+- Real Estate
+- Retail
+- Telecommunications
+- Transportation
+- Utilities
+- Other</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Possible values:
+- Global
+- North America
+- South America
+- LATAM
+- Europe
+- Western Europe
+- Eastern Europe
+- Continental Europe
+- Middle East
+- Africa
+- Asia
+- East Asia
+- South Asia
+- South East Asia
+- Oceania
+- EMEA
+- Emerging Markets</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Possible values:
+- simple
+- standard
+- comprehensive</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Possible values:
+- 1-5
+- 6-10
+- 11-20
+- 21+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Possible values:
+- pitch_deck
+- video
+- financial_projections
+- business_plan
+- traction_data</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Possible values:
+- FREE
+- PRO
+- MAX</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="105">
   <si>
     <t>name</t>
   </si>
@@ -328,9 +537,6 @@
   </si>
   <si>
     <t>Seed; Series A</t>
-  </si>
-  <si>
-    <t>pitch_deck; video; traction_data</t>
   </si>
   <si>
     <t>It is the v0 app</t>
@@ -358,19 +564,22 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <name val="Calibri (Body)"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri (Body)"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri (Body)"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -400,10 +609,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -411,11 +620,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -756,33 +971,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BL2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BM2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="49.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="64" width="8.83203125" style="5"/>
-    <col min="65" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="54.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="65" width="8.83203125" style="7"/>
+    <col min="66" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:65" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -825,58 +1041,59 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="4"/>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="4"/>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4"/>
-      <c r="AX1" s="4"/>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="4"/>
-      <c r="BB1" s="4"/>
-      <c r="BC1" s="4"/>
-      <c r="BD1" s="4"/>
-      <c r="BE1" s="4"/>
-      <c r="BF1" s="4"/>
-      <c r="BG1" s="4"/>
-      <c r="BH1" s="4"/>
-      <c r="BI1" s="4"/>
-      <c r="BJ1" s="4"/>
-      <c r="BK1" s="4"/>
-      <c r="BL1" s="4"/>
-    </row>
-    <row r="2" spans="1:64" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6"/>
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="6"/>
+      <c r="AX1" s="6"/>
+      <c r="AY1" s="6"/>
+      <c r="AZ1" s="6"/>
+      <c r="BA1" s="6"/>
+      <c r="BB1" s="6"/>
+      <c r="BC1" s="6"/>
+      <c r="BD1" s="6"/>
+      <c r="BE1" s="6"/>
+      <c r="BF1" s="6"/>
+      <c r="BG1" s="6"/>
+      <c r="BH1" s="6"/>
+      <c r="BI1" s="6"/>
+      <c r="BJ1" s="6"/>
+      <c r="BK1" s="6"/>
+      <c r="BL1" s="6"/>
+      <c r="BM1" s="6"/>
+    </row>
+    <row r="2" spans="1:65" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>101</v>
       </c>
@@ -905,75 +1122,127 @@
         <v>41</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>101</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4"/>
+      <c r="BG2" s="4"/>
+      <c r="BH2" s="4"/>
+      <c r="BI2" s="4"/>
+      <c r="BJ2" s="4"/>
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4"/>
+      <c r="BM2" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{024B904A-3126-474C-83C3-4664B9422DAC}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{B6C560FD-574E-6847-85AC-63A416DE26E5}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{3EED2346-1F23-9440-9F28-4BC2E28B4743}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{30C47B46-BEB5-4147-A282-D928B451485B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Value" error="Please select a value from the dropdown list." xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Guidance" error="Please select a value from the dropdown list." xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>ValidationData!$E$1:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:E1000</xm:sqref>
+          <xm:sqref>E3:E1000</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" errorTitle="Invalid Value" error="You can enter multiple values separated by commas. The list is a guide for available options." xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Guidance" error="Select a value from the list, or enter multiple values separated by commas or semicolons." xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>ValidationData!$F$1:$F$7</xm:f>
           </x14:formula1>
-          <xm:sqref>F4:F1000</xm:sqref>
+          <xm:sqref>F3:F1000</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" errorTitle="Invalid Value" error="You can enter multiple values separated by commas. The list is a guide for available options." xr:uid="{00000000-0002-0000-0000-000004000000}">
+        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Guidance" error="Select a value from the list, or enter multiple values separated by commas or semicolons." xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>ValidationData!$G$1:$G$45</xm:f>
           </x14:formula1>
-          <xm:sqref>G4:G1000</xm:sqref>
+          <xm:sqref>G3:G1000</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" errorTitle="Invalid Value" error="You can enter multiple values separated by commas. The list is a guide for available options." xr:uid="{00000000-0002-0000-0000-000006000000}">
+        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Guidance" error="Select a value from the list, or enter multiple values separated by commas or semicolons." xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
             <xm:f>ValidationData!$H$1:$H$17</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H1000</xm:sqref>
+          <xm:sqref>H3:H1000</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Value" error="Please select a value from the dropdown list." xr:uid="{00000000-0002-0000-0000-000008000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Guidance" error="Please select a value from the dropdown list." xr:uid="{00000000-0002-0000-0000-000008000000}">
           <x14:formula1>
             <xm:f>ValidationData!$I$1:$I$3</xm:f>
           </x14:formula1>
-          <xm:sqref>I4:I1000</xm:sqref>
+          <xm:sqref>I3:I1000</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Value" error="Please select a value from the dropdown list." xr:uid="{00000000-0002-0000-0000-00000A000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Guidance" error="Please select a value from the dropdown list." xr:uid="{00000000-0002-0000-0000-00000A000000}">
           <x14:formula1>
             <xm:f>ValidationData!$J$1:$J$4</xm:f>
           </x14:formula1>
-          <xm:sqref>J4:J1000</xm:sqref>
+          <xm:sqref>J3:J1000</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" errorTitle="Invalid Value" error="You can enter multiple values separated by commas. The list is a guide for available options." xr:uid="{00000000-0002-0000-0000-00000C000000}">
+        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Guidance" error="Select a value from the list, or enter multiple values separated by commas or semicolons." xr:uid="{00000000-0002-0000-0000-00000C000000}">
           <x14:formula1>
             <xm:f>ValidationData!$K$1:$K$5</xm:f>
           </x14:formula1>
-          <xm:sqref>K4:K1000</xm:sqref>
+          <xm:sqref>K3:K1000</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Value" error="Please select a value from the dropdown list." xr:uid="{00000000-0002-0000-0000-00000E000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Guidance" error="Please select a value from the dropdown list." xr:uid="{00000000-0002-0000-0000-00000E000000}">
           <x14:formula1>
             <xm:f>ValidationData!$N$1:$N$3</xm:f>
           </x14:formula1>
-          <xm:sqref>N4:N1000</xm:sqref>
+          <xm:sqref>N3:N1000</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/src/lib/scripts/seed-data/production/targets.xlsx
+++ b/src/lib/scripts/seed-data/production/targets.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10608"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93F730F-21FC-124B-AA76-8B2D949FA091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD9DFEC-B1F4-FA4A-8388-C2F98874C1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="27040" windowHeight="16880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,57 +64,471 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Possible values:
-- B2B SaaS
-- Fintech
-- Healthtech
-- AI/ML
-- Deep tech
-- Climate tech
-- Consumer
-- E-commerce
-- Marketplace
-- Gaming
-- Web3
-- Developer tools
-- Cybersecurity
-- Logistics
-- AdTech
-- PropTech
-- InsurTech
-- Agriculture
-- Automotive
-- Biotechnology
-- Construction
-- Consulting
-- Consumer Goods
-- Education
-- Energy
-- Entertainment
-- Environmental Services
-- Fashion
-- Food &amp; Beverage
-- Government
-- Healthcare Services
-- Hospitality
-- Human Resources
-- Insurance
-- Legal
-- Manufacturing
-- Media
-- Non-profit
-- Pharmaceuticals
-- Real Estate
-- Retail
-- Telecommunications
-- Transportation
-- Utilities
-- Other</t>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Possible values:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- B2B SaaS
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Fintech
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Healthtech
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- AI/ML
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Deep tech
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Climate tech
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Consumer
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- E-commerce
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Marketplace
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Gaming
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Web3
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Developer tools
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Cybersecurity
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Logistics
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- AdTech
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- PropTech
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- InsurTech
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Agriculture
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Automotive
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Biotechnology
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Construction
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Consulting
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Consumer Goods
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Education
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Energy
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Entertainment
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Environmental Services
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Fashion
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Food &amp; Beverage
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Government
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Healthcare Services
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Hospitality
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Human Resources
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Insurance
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Legal
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Manufacturing
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Media
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Non-profit
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Pharmaceuticals
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Real Estate
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Retail
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Telecommunications
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Transportation
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Utilities
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>- Other</t>
         </r>
       </text>
     </comment>
@@ -123,29 +537,191 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Possible values:
-- Global
-- North America
-- South America
-- LATAM
-- Europe
-- Western Europe
-- Eastern Europe
-- Continental Europe
-- Middle East
-- Africa
-- Asia
-- East Asia
-- South Asia
-- South East Asia
-- Oceania
-- EMEA
-- Emerging Markets</t>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Possible values:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Global
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- North America
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- South America
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- LATAM
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Europe
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Western Europe
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Eastern Europe
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Continental Europe
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Middle East
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Africa
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Asia
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- East Asia
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- South Asia
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- South East Asia
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Oceania
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- EMEA
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>- Emerging Markets</t>
         </r>
       </text>
     </comment>
@@ -225,7 +801,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="113">
   <si>
     <t>name</t>
   </si>
@@ -540,13 +1116,37 @@
   </si>
   <si>
     <t>It is the v0 app</t>
+  </si>
+  <si>
+    <t>Breega</t>
+  </si>
+  <si>
+    <t>https://www.breega.com/</t>
+  </si>
+  <si>
+    <t>https://rm531z4dws8.typeform.com/to/NNZmuM7H?typeform-source=www.breega.com</t>
+  </si>
+  <si>
+    <t>B2B SaaS, Fintech, Consumer</t>
+  </si>
+  <si>
+    <t>EMEA, Emerging Markets</t>
+  </si>
+  <si>
+    <t>pitch_deck, video</t>
+  </si>
+  <si>
+    <t>we back exceptional founders—sometimes before they even see it themselves—from pre-Seed to Series A+, building Digital, Climate, and Deep Tech startups ...</t>
+  </si>
+  <si>
+    <t>Pre-seed; Pre-seed; Series A; Series B; Growth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -579,6 +1179,12 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -972,28 +1578,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BM2"/>
+  <dimension ref="A1:BM3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="54.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="65" width="8.83203125" style="7"/>
     <col min="66" max="16384" width="8.83203125" style="5"/>
   </cols>
@@ -1121,8 +1728,8 @@
       <c r="J2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>28</v>
+      <c r="K2" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>101</v>
@@ -1185,6 +1792,47 @@
       <c r="BL2" s="4"/>
       <c r="BM2" s="4"/>
     </row>
+    <row r="3" spans="1:65" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{3EED2346-1F23-9440-9F28-4BC2E28B4743}"/>
@@ -1236,7 +1884,7 @@
           <x14:formula1>
             <xm:f>ValidationData!$K$1:$K$5</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K1000</xm:sqref>
+          <xm:sqref>K2:K1000</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Guidance" error="Please select a value from the dropdown list." xr:uid="{00000000-0002-0000-0000-00000E000000}">
           <x14:formula1>

--- a/src/lib/scripts/seed-data/production/targets.xlsx
+++ b/src/lib/scripts/seed-data/production/targets.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10608"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD9DFEC-B1F4-FA4A-8388-C2F98874C1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0937CD-2E67-D946-B0F1-AFDF9E2277EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="27040" windowHeight="16880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1139,7 +1139,7 @@
     <t>we back exceptional founders—sometimes before they even see it themselves—from pre-Seed to Series A+, building Digital, Climate, and Deep Tech startups ...</t>
   </si>
   <si>
-    <t>Pre-seed; Pre-seed; Series A; Series B; Growth</t>
+    <t>Pre-seed; Series A; Series B; Growth</t>
   </si>
 </sst>
 </file>
@@ -1582,7 +1582,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/src/lib/scripts/seed-data/production/targets.xlsx
+++ b/src/lib/scripts/seed-data/production/targets.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10720"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0937CD-2E67-D946-B0F1-AFDF9E2277EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDCA8CB-3764-A948-BC68-866B24010126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="27040" windowHeight="16880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="targets template" sheetId="1" r:id="rId1"/>
@@ -64,471 +64,57 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Possible values:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- B2B SaaS
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Fintech
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Healthtech
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- AI/ML
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Deep tech
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Climate tech
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Consumer
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- E-commerce
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Marketplace
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Gaming
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Web3
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Developer tools
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Cybersecurity
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Logistics
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- AdTech
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- PropTech
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- InsurTech
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Agriculture
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Automotive
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Biotechnology
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Construction
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Consulting
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Consumer Goods
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Education
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Energy
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Entertainment
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Environmental Services
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Fashion
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Food &amp; Beverage
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Government
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Healthcare Services
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Hospitality
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Human Resources
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Insurance
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Legal
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Manufacturing
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Media
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Non-profit
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Pharmaceuticals
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Real Estate
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Retail
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Telecommunications
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Transportation
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Utilities
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>- Other</t>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Possible values:
+- B2B SaaS
+- Fintech
+- Healthtech
+- AI/ML
+- Deep tech
+- Climate tech
+- Consumer
+- E-commerce
+- Marketplace
+- Gaming
+- Web3
+- Developer tools
+- Cybersecurity
+- Logistics
+- AdTech
+- PropTech
+- InsurTech
+- Agriculture
+- Automotive
+- Biotechnology
+- Construction
+- Consulting
+- Consumer Goods
+- Education
+- Energy
+- Entertainment
+- Environmental Services
+- Fashion
+- Food &amp; Beverage
+- Government
+- Healthcare Services
+- Hospitality
+- Human Resources
+- Insurance
+- Legal
+- Manufacturing
+- Media
+- Non-profit
+- Pharmaceuticals
+- Real Estate
+- Retail
+- Telecommunications
+- Transportation
+- Utilities
+- Other</t>
         </r>
       </text>
     </comment>
@@ -537,208 +123,29 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Possible values:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Global
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- North America
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- South America
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- LATAM
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Europe
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Western Europe
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Eastern Europe
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Continental Europe
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Middle East
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Africa
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Asia
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- East Asia
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- South Asia
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- South East Asia
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- Oceania
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">- EMEA
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>- Emerging Markets</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Possible values:
-- simple
-- standard
-- comprehensive</t>
+- Global
+- North America
+- South America
+- LATAM
+- Europe
+- Western Europe
+- Eastern Europe
+- Continental Europe
+- Middle East
+- Africa
+- Asia
+- East Asia
+- South Asia
+- South East Asia
+- Oceania
+- EMEA
+- Emerging Markets</t>
         </r>
       </text>
     </comment>
@@ -747,16 +154,61 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Possible values:
-- 1-5
-- 6-10
-- 11-20
-- 21+</t>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Possible values:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- 1-5
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- 6-10
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- 11-20
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>- 21+</t>
         </r>
       </text>
     </comment>
@@ -765,21 +217,201 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Possible values:
-- pitch_deck
-- video
-- financial_projections
-- business_plan
-- traction_data</t>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Possible values:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- pitch_deck
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- video
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- financial_projections
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- business_plan
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>- traction_data</t>
         </r>
       </text>
     </comment>
     <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Possible values:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- contact
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- typeform
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- google
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>- generic</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Possible values:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- browser_use
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- browser_base
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- computer_use
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>- hyperbrowser</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -801,7 +433,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="123">
   <si>
     <t>name</t>
   </si>
@@ -842,6 +474,12 @@
     <t>notes</t>
   </si>
   <si>
+    <t>form_type</t>
+  </si>
+  <si>
+    <t>browser_system</t>
+  </si>
+  <si>
     <t>visibility_level</t>
   </si>
   <si>
@@ -866,6 +504,12 @@
     <t>pitch_deck</t>
   </si>
   <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>browser_use</t>
+  </si>
+  <si>
     <t>FREE</t>
   </si>
   <si>
@@ -890,6 +534,12 @@
     <t>video</t>
   </si>
   <si>
+    <t>typeform</t>
+  </si>
+  <si>
+    <t>browser_base</t>
+  </si>
+  <si>
     <t>PRO</t>
   </si>
   <si>
@@ -914,6 +564,12 @@
     <t>financial_projections</t>
   </si>
   <si>
+    <t>google</t>
+  </si>
+  <si>
+    <t>computer_use</t>
+  </si>
+  <si>
     <t>MAX</t>
   </si>
   <si>
@@ -932,6 +588,12 @@
     <t>business_plan</t>
   </si>
   <si>
+    <t>generic</t>
+  </si>
+  <si>
+    <t>hyperbrowser</t>
+  </si>
+  <si>
     <t>Series C</t>
   </si>
   <si>
@@ -1115,6 +777,9 @@
     <t>Seed; Series A</t>
   </si>
   <si>
+    <t>pitch_deck, video</t>
+  </si>
+  <si>
     <t>It is the v0 app</t>
   </si>
   <si>
@@ -1127,19 +792,16 @@
     <t>https://rm531z4dws8.typeform.com/to/NNZmuM7H?typeform-source=www.breega.com</t>
   </si>
   <si>
+    <t>Pre-seed; Series A; Series B; Growth</t>
+  </si>
+  <si>
     <t>B2B SaaS, Fintech, Consumer</t>
   </si>
   <si>
     <t>EMEA, Emerging Markets</t>
   </si>
   <si>
-    <t>pitch_deck, video</t>
-  </si>
-  <si>
     <t>we back exceptional founders—sometimes before they even see it themselves—from pre-Seed to Series A+, building Digital, Climate, and Deep Tech startups ...</t>
-  </si>
-  <si>
-    <t>Pre-seed; Series A; Series B; Growth</t>
   </si>
 </sst>
 </file>
@@ -1163,12 +825,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1187,6 +843,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1197,7 +859,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1215,28 +877,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1578,319 +1234,304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BM3"/>
+  <dimension ref="A1:CE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.6640625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="65" width="8.83203125" style="7"/>
-    <col min="66" max="16384" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="18.6640625" style="1"/>
+    <col min="2" max="2" width="48.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16" width="18.6640625" style="1"/>
+    <col min="17" max="83" width="18.6640625" style="3"/>
+    <col min="84" max="16384" width="18.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:83" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="6"/>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6"/>
-      <c r="BG1" s="6"/>
-      <c r="BH1" s="6"/>
-      <c r="BI1" s="6"/>
-      <c r="BJ1" s="6"/>
-      <c r="BK1" s="6"/>
-      <c r="BL1" s="6"/>
-      <c r="BM1" s="6"/>
-    </row>
-    <row r="2" spans="1:65" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+      <c r="BC1" s="5"/>
+      <c r="BD1" s="5"/>
+      <c r="BE1" s="5"/>
+      <c r="BF1" s="5"/>
+      <c r="BG1" s="5"/>
+      <c r="BH1" s="5"/>
+      <c r="BI1" s="5"/>
+      <c r="BJ1" s="5"/>
+      <c r="BK1" s="5"/>
+      <c r="BL1" s="5"/>
+      <c r="BM1" s="5"/>
+      <c r="BN1" s="5"/>
+      <c r="BO1" s="5"/>
+      <c r="BP1" s="5"/>
+      <c r="BQ1" s="5"/>
+      <c r="BR1" s="5"/>
+      <c r="BS1" s="5"/>
+      <c r="BT1" s="5"/>
+      <c r="BU1" s="5"/>
+      <c r="BV1" s="5"/>
+      <c r="BW1" s="5"/>
+      <c r="BX1" s="5"/>
+      <c r="BY1" s="5"/>
+      <c r="BZ1" s="5"/>
+      <c r="CA1" s="5"/>
+      <c r="CB1" s="5"/>
+      <c r="CC1" s="5"/>
+      <c r="CD1" s="5"/>
+      <c r="CE1" s="5"/>
+    </row>
+    <row r="2" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="P2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4"/>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4"/>
-      <c r="AY2" s="4"/>
-      <c r="AZ2" s="4"/>
-      <c r="BA2" s="4"/>
-      <c r="BB2" s="4"/>
-      <c r="BC2" s="4"/>
-      <c r="BD2" s="4"/>
-      <c r="BE2" s="4"/>
-      <c r="BF2" s="4"/>
-      <c r="BG2" s="4"/>
-      <c r="BH2" s="4"/>
-      <c r="BI2" s="4"/>
-      <c r="BJ2" s="4"/>
-      <c r="BK2" s="4"/>
-      <c r="BL2" s="4"/>
-      <c r="BM2" s="4"/>
-    </row>
-    <row r="3" spans="1:65" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="M3" s="5" t="s">
+      <c r="K3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>21</v>
+      <c r="M3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{3EED2346-1F23-9440-9F28-4BC2E28B4743}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{30C47B46-BEB5-4147-A282-D928B451485B}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{426EDCDF-523D-D34A-A67A-0BB8502E791D}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{F935AC6D-AC87-DB48-962A-EBD5C8F01C6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Guidance" error="Please select a value from the dropdown list." xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>ValidationData!$E$1:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E1000</xm:sqref>
+          <xm:sqref>E4:E1000</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Guidance" error="Select a value from the list, or enter multiple values separated by commas or semicolons." xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>ValidationData!$F$1:$F$7</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F1000</xm:sqref>
+          <xm:sqref>F4:F1000</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Guidance" error="Select a value from the list, or enter multiple values separated by commas or semicolons." xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>ValidationData!$G$1:$G$45</xm:f>
           </x14:formula1>
-          <xm:sqref>G3:G1000</xm:sqref>
+          <xm:sqref>G4:G1000</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Guidance" error="Select a value from the list, or enter multiple values separated by commas or semicolons." xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
             <xm:f>ValidationData!$H$1:$H$17</xm:f>
           </x14:formula1>
-          <xm:sqref>H3:H1000</xm:sqref>
+          <xm:sqref>H4:H1000</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Guidance" error="Please select a value from the dropdown list." xr:uid="{00000000-0002-0000-0000-000008000000}">
           <x14:formula1>
             <xm:f>ValidationData!$I$1:$I$3</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I1000</xm:sqref>
+          <xm:sqref>I4:I1000</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Guidance" error="Please select a value from the dropdown list." xr:uid="{00000000-0002-0000-0000-00000A000000}">
           <x14:formula1>
             <xm:f>ValidationData!$J$1:$J$4</xm:f>
           </x14:formula1>
-          <xm:sqref>J3:J1000</xm:sqref>
+          <xm:sqref>J4:J1000</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Guidance" error="Select a value from the list, or enter multiple values separated by commas or semicolons." xr:uid="{00000000-0002-0000-0000-00000C000000}">
           <x14:formula1>
             <xm:f>ValidationData!$K$1:$K$5</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K1000</xm:sqref>
+          <xm:sqref>K4:K1000</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Guidance" error="Please select a value from the dropdown list." xr:uid="{00000000-0002-0000-0000-00000E000000}">
           <x14:formula1>
-            <xm:f>ValidationData!$N$1:$N$3</xm:f>
+            <xm:f>ValidationData!$N$1:$N$4</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N1000</xm:sqref>
+          <xm:sqref>N4:N1000</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Guidance" error="Please select a value from the dropdown list." xr:uid="{00000000-0002-0000-0000-000010000000}">
+          <x14:formula1>
+            <xm:f>ValidationData!$O$1:$O$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>O2:O1000</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Guidance" error="Please select a value from the dropdown list." xr:uid="{00000000-0002-0000-0000-000012000000}">
+          <x14:formula1>
+            <xm:f>ValidationData!$P$1:$P$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>P2:P1000</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1900,361 +1541,385 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="E1:N45"/>
+  <dimension ref="E1:P45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="5:14" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="5:14" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="5:14" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="O3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="5:14" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F5" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="5:14" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F6" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="5:14" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="5:14" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="5:16" x14ac:dyDescent="0.2">
       <c r="G8" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="5:14" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="5:16" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="5:14" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="5:16" x14ac:dyDescent="0.2">
       <c r="G10" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="5:14" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="5:16" x14ac:dyDescent="0.2">
       <c r="G11" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="5:14" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="5:16" x14ac:dyDescent="0.2">
       <c r="G12" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="5:14" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="5:16" x14ac:dyDescent="0.2">
       <c r="G13" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="5:14" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="5:16" x14ac:dyDescent="0.2">
       <c r="G14" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="5:14" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="5:16" x14ac:dyDescent="0.2">
       <c r="G15" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="5:14" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="5:16" x14ac:dyDescent="0.2">
       <c r="G16" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G17" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G18" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G19" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G20" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G21" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G22" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G23" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G24" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G25" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G26" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G27" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G28" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G29" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G30" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G31" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G32" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G33" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G34" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G35" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G36" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G37" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G38" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G39" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G40" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G41" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G42" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G43" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G44" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G45" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/src/lib/scripts/seed-data/production/targets.xlsx
+++ b/src/lib/scripts/seed-data/production/targets.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE98920F-8E38-A14B-8BD7-7BF3DC59A426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89A0CA9-EE2E-B84E-A99A-A9F20520F6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,64 +64,541 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>Possible values:
-- Software
-- Fintech
-- Healthcare
-- Medtech
-- AI
-- Computing
-- Deep tech
-- Climate
-- Consumer
-- E-commerce
-- Marketplace
-- Gaming
-- Web3
-- Developer tools
-- Cybersecurity
-- Logistics
-- Adtech
-- Proptech
-- Agriculture
-- Automotive
-- Biotechnology
-- Construction
-- Education
-- Energy
-- Entertainment
-- Environment
-- Fashion
-- Real estate
-- Food
-- IoT
-- Government
-- Hospitality
-- HR
-- Insurance
-- Security
-- Social
-- Aerospace
-- AR/VR
-- Mining
-- Advanced Materials
-- Biofuels
-- Hardware
-- Nanotechnology
-- Legal
-- Manufacturing
-- Media
-- Pharmaceuticals
-- Retail
-- Telecommunications
-- Transportation
-- Agnostic
-- Other</t>
+          <t xml:space="preserve">Possible values:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Software
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Fintech
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Healthcare
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Medtech
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- AI
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Computing
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Deep tech
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Climate
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Consumer
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- E-commerce
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Marketplace
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Gaming
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Web3
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Developer tools
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Cybersecurity
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Logistics
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Adtech
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Proptech
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Agriculture
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Automotive
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Biotechnology
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Construction
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Education
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Energy
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Entertainment
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Environment
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Fashion
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Real estate
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Food
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- IoT
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Government
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Hospitality
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- HR
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Insurance
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Security
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Social
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Aerospace
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- AR/VR
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Mining
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Advanced Materials
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Biofuels
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Hardware
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Nanotechnology
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Legal
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Manufacturing
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Media
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Pharmaceuticals
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Retail
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Telecommunications
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Transportation
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Agnostic
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>- Other</t>
         </r>
       </text>
     </comment>
@@ -283,7 +760,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2605" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2606" uniqueCount="923">
   <si>
     <t>name</t>
   </si>
@@ -849,9 +1326,6 @@
     <t>https://open-startup.org/#get-in-contact</t>
   </si>
   <si>
-    <t>Tech, Deep Tech</t>
-  </si>
-  <si>
     <t>Africa, Global</t>
   </si>
   <si>
@@ -1003,9 +1477,6 @@
   </si>
   <si>
     <t>https://www.blue9capital.com/</t>
-  </si>
-  <si>
-    <t>Fintech, Consumer, Healthcare, General Tech, E-commerce, CommerceTech</t>
   </si>
   <si>
     <t xml:space="preserve">Family office in NYC that invests in early stage companies </t>
@@ -1118,9 +1589,6 @@
     <t>https://www.joyancepartners.com/contact</t>
   </si>
   <si>
-    <t>Consumer, Healthcare, EdTech, Software, Food Tech, VR, Energy, Construction, AI, Biotechnology, Robotics</t>
-  </si>
-  <si>
     <t>Joyance Partners is a venture capital partnership that invests in companies with the capacity to deliver, or contribute to the delivery of, Delightful Moments.</t>
   </si>
   <si>
@@ -1145,9 +1613,6 @@
     <t>https://docs.google.com/forms/d/e/1FAIpQLSdq04YGq8Bg46gJ1hLMvx41LFchTap0qJYSy22-arznda48GA/viewform</t>
   </si>
   <si>
-    <t>Software, Fintech, Healthcare, Retail, Food, Real Estate, E-commerce</t>
-  </si>
-  <si>
     <t>We lead seed rounds in companies revolutionizing legacy industries. Our investment approach is highly concentrated, enabling us to work closely with founders on sales acceleration, operational execution, and capital strategy.</t>
   </si>
   <si>
@@ -1158,9 +1623,6 @@
   </si>
   <si>
     <t>https://www.maccabee.vc/contact</t>
-  </si>
-  <si>
-    <t>Fintech, Healthcare, Software, PropTech, EdTech</t>
   </si>
   <si>
     <t>Maccabee Ventures is an early stage VC that leverages the 70,000+ alumni, faculty and students of Yeshiva University</t>
@@ -1263,9 +1725,6 @@
     <t>https://www.tournonventures.com/work-with-us</t>
   </si>
   <si>
-    <t>Healthcare, Energy, Real Estate, Climate</t>
-  </si>
-  <si>
     <t>We specialize in supporting innovative products, technologies and services in regulated industries like healthcare and renewable energy. That might mean investing in angel and seed rounds for startups, offering advisory services on commercial strategy to growing companies, or doing project development for multi-national corporations.</t>
   </si>
   <si>
@@ -1331,18 +1790,9 @@
     <t>Bio Generation Ventures</t>
   </si>
   <si>
-    <t>biogeneration.vc</t>
-  </si>
-  <si>
     <t>https://biogenerationventures.com/en/contact/</t>
   </si>
   <si>
-    <t>Healthcare, Medtech, Biotechnology</t>
-  </si>
-  <si>
-    <t>BioGeneration Ventures (BGV) is a venture capital company, with a focus on early stage European biotech, medtech, and diagnostics companies. BGV has a strong track record of significant financial returns through investing in innovations in healthcare and providing the expertise to build world-class teams.</t>
-  </si>
-  <si>
     <t>Borski Fund</t>
   </si>
   <si>
@@ -1364,9 +1814,6 @@
     <t>https://brightlandsventurepartners.com/contact/</t>
   </si>
   <si>
-    <t>Healthcare, Medtech, Biotechnology, AI</t>
-  </si>
-  <si>
     <t xml:space="preserve">Brightlands Venture Partners is a sustainability and health venture capital firm based in the south of the Netherlands. Their initial investment is typically between € 0.5 million and € 2.0 million per company. Also Brightlands Venture Partners generally reserve an amount for follow-on investments at least twice their initial commitment. </t>
   </si>
   <si>
@@ -1403,13 +1850,7 @@
     <t>Cottonwood</t>
   </si>
   <si>
-    <t>www.cottonwood.vc</t>
-  </si>
-  <si>
     <t>https://form.typeform.com/to/WIbXMkor?typeform-source=www.cottonwood.vc</t>
-  </si>
-  <si>
-    <t>Deeptech, Advanced Materials, Nanotechnology</t>
   </si>
   <si>
     <t>Netherlands, United States</t>
@@ -1492,9 +1933,6 @@
     <t>https://futurefoodfund.nl/lets-grow/</t>
   </si>
   <si>
-    <t>Foodtech, Agriculture</t>
-  </si>
-  <si>
     <t>Future Food Fund is a venture capital fund that invest in early stage companies that change the value chain of food and agriculture.</t>
   </si>
   <si>
@@ -1643,9 +2081,6 @@
   </si>
   <si>
     <t>https://www.tincapital.vc/contact</t>
-  </si>
-  <si>
-    <t>Cybersecurity, Automotive, IOT, Software, Deep tech, AI</t>
   </si>
   <si>
     <t>TIIN Capital is a sector-focused venture capital fund that backs startups and scale-ups in the field of cybersecurity and IoT Security. Their ticket sizes for early stage/startups vary from 200k up to € 1M.</t>
@@ -2208,9 +2643,6 @@
     <t>https://www.oakhcft.com/contact</t>
   </si>
   <si>
-    <t>Healthcare, Medtech, Fintech, AI</t>
-  </si>
-  <si>
     <t>We work with founders driving structural change in two complex systems: healthcare and financial services. With unparalleled networks and decades of sector experience, we have become one of the best-performing growth equity firms in the world.</t>
   </si>
   <si>
@@ -2371,9 +2803,6 @@
     <t>https://ynn9bmx5uvb.typeform.com/to/UXDOn5jX?typeform-source=www.aura.vc</t>
   </si>
   <si>
-    <t>Consumer, Deep Tech, Healthcare, Fintech, Manufacturing, Marketplace, Software</t>
-  </si>
-  <si>
     <t>We’re a seed-stage specialist, thesis-driven, and South-East Asia connected venture firm backing the next generation of founders.</t>
   </si>
   <si>
@@ -2488,9 +2917,6 @@
     <t>EVP</t>
   </si>
   <si>
-    <t>www.evp.com.au</t>
-  </si>
-  <si>
     <t>https://evpvc.typeform.com/to/j6ivQy7I?typeform-source=www.evp.com.au</t>
   </si>
   <si>
@@ -2653,10 +3079,6 @@
     <t>https://centuryoakventures.com/contact-us/</t>
   </si>
   <si>
-    <t xml:space="preserve">
-We are a Venture Capital firm with a Private Equity Approach.</t>
-  </si>
-  <si>
     <t>Consonance Fund</t>
   </si>
   <si>
@@ -2843,9 +3265,6 @@
     <t>https://wavemaker.vc/contact-us/</t>
   </si>
   <si>
-    <t>Deep tech, Developer tools, Software, Financial Services</t>
-  </si>
-  <si>
     <t>South East Asia, South Asia</t>
   </si>
   <si>
@@ -3072,13 +3491,73 @@
   </si>
   <si>
     <t>InterValley Ventures is a dynamic Venture Capital Fund that invests in ground-breaking Australian technology. In addition, we facilitate the entry of companies into the Japanese market during their early stages of development.</t>
+  </si>
+  <si>
+    <t>https://www.biogeneration.vc</t>
+  </si>
+  <si>
+    <t>https://www.cottonwood.vc</t>
+  </si>
+  <si>
+    <t>https://www.7wireventures.com</t>
+  </si>
+  <si>
+    <t>https://www.evp.com.au</t>
+  </si>
+  <si>
+    <t>Century oak is a venture capital firm with a private equity approach.</t>
+  </si>
+  <si>
+    <t>Software, Deep tech</t>
+  </si>
+  <si>
+    <t>Consumer, Deep tech, Healthcare, Fintech, Manufacturing, Marketplace, Software</t>
+  </si>
+  <si>
+    <t>Fintech, Consumer, Healthcare, Software, E-commerce</t>
+  </si>
+  <si>
+    <t>BioGeneration Ventures (BGV) is a venture capital company, with a focus on early stage European biotech, mEducation, and diagnostics companies. BGV has a strong track record of significant financial returns through investing in innovations in healthcare and providing the expertise to build world-class teams.</t>
+  </si>
+  <si>
+    <t>Consumer, Healthcare, Education, Software, Food, AR/VR, Energy, Construction, AI, Biotechnology, Robotics</t>
+  </si>
+  <si>
+    <t>Software, Fintech, Healthcare, Retail, Food, Real estate, E-commerce</t>
+  </si>
+  <si>
+    <t>Healthcare, Energy, Real estate, Climate</t>
+  </si>
+  <si>
+    <t>Fintech, Healthcare, Software, Proptech, Education</t>
+  </si>
+  <si>
+    <t>Healthcare, Education, Biotechnology</t>
+  </si>
+  <si>
+    <t>Healthcare, Education, Biotechnology, AI</t>
+  </si>
+  <si>
+    <t>Healthcare, Education, Fintech, AI</t>
+  </si>
+  <si>
+    <t>Deep tech, Advanced Materials, Nanotechnology</t>
+  </si>
+  <si>
+    <t>Food, Agriculture</t>
+  </si>
+  <si>
+    <t>Cybersecurity, Automotive, IoT, Software, Deep tech, AI</t>
+  </si>
+  <si>
+    <t>Deep tech, Developer tools, Software, Fintech</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3102,6 +3581,20 @@
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3143,10 +3636,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3163,8 +3657,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3505,12 +4003,14 @@
   <dimension ref="A1:P177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="25" style="5"/>
+    <col min="1" max="6" width="25" style="5"/>
+    <col min="7" max="7" width="69.1640625" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="25" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3751,7 +4251,7 @@
       <c r="A6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -3797,7 +4297,7 @@
       <c r="A7" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>162</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -3843,7 +4343,7 @@
       <c r="A8" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -3891,7 +4391,7 @@
       <c r="A9" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -3937,7 +4437,7 @@
       <c r="A10" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -3983,7 +4483,7 @@
       <c r="A11" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>186</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -3997,10 +4497,10 @@
         <v>141</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>20</v>
@@ -4022,28 +4522,28 @@
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>63</v>
@@ -4068,18 +4568,18 @@
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
@@ -4089,7 +4589,7 @@
         <v>159</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>63</v>
@@ -4114,25 +4614,25 @@
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>131</v>
@@ -4159,31 +4659,31 @@
         <v>35</v>
       </c>
       <c r="O14" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="P14" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>89</v>
@@ -4207,21 +4707,21 @@
         <v>45</v>
       </c>
       <c r="O15" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
@@ -4231,7 +4731,7 @@
         <v>159</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>69</v>
@@ -4256,18 +4756,18 @@
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
@@ -4277,7 +4777,7 @@
         <v>159</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>89</v>
@@ -4301,21 +4801,21 @@
         <v>35</v>
       </c>
       <c r="O17" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="P17" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
@@ -4350,18 +4850,18 @@
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
@@ -4396,18 +4896,18 @@
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
@@ -4441,21 +4941,21 @@
         <v>35</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
@@ -4465,7 +4965,7 @@
         <v>159</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>240</v>
+        <v>910</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>89</v>
@@ -4490,18 +4990,18 @@
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
@@ -4535,21 +5035,21 @@
         <v>25</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
@@ -4584,18 +5084,18 @@
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
@@ -4605,7 +5105,7 @@
         <v>159</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>89</v>
@@ -4630,28 +5130,28 @@
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>56</v>
@@ -4675,21 +5175,21 @@
         <v>35</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
@@ -4724,18 +5224,18 @@
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
@@ -4770,18 +5270,18 @@
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
@@ -4791,7 +5291,7 @@
         <v>159</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>274</v>
+        <v>912</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>89</v>
@@ -4816,18 +5316,18 @@
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
@@ -4862,28 +5362,28 @@
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>159</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>283</v>
+        <v>913</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>89</v>
@@ -4908,18 +5408,18 @@
       </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
@@ -4929,7 +5429,7 @@
         <v>159</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>288</v>
+        <v>915</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>89</v>
@@ -4954,18 +5454,18 @@
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
@@ -4975,7 +5475,7 @@
         <v>159</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>89</v>
@@ -5000,18 +5500,18 @@
       </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
@@ -5046,18 +5546,18 @@
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
@@ -5092,18 +5592,18 @@
       </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
@@ -5138,18 +5638,18 @@
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>308</v>
+        <v>302</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
@@ -5159,7 +5659,7 @@
         <v>159</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>89</v>
@@ -5184,18 +5684,18 @@
       </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>313</v>
+        <v>307</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>308</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
@@ -5230,18 +5730,18 @@
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>312</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
@@ -5276,18 +5776,18 @@
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
@@ -5297,7 +5797,7 @@
         <v>159</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>322</v>
+        <v>914</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>89</v>
@@ -5322,18 +5822,18 @@
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>325</v>
+        <v>318</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
@@ -5343,7 +5843,7 @@
         <v>159</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>89</v>
@@ -5367,21 +5867,21 @@
         <v>35</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
@@ -5391,7 +5891,7 @@
         <v>159</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>89</v>
@@ -5415,29 +5915,31 @@
         <v>35</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>335</v>
+        <v>328</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F42" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>107</v>
@@ -5462,18 +5964,18 @@
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
@@ -5508,18 +6010,18 @@
       </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>903</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
@@ -5529,7 +6031,7 @@
         <v>159</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>346</v>
+        <v>916</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>107</v>
@@ -5554,18 +6056,18 @@
       </c>
       <c r="O44" s="1"/>
       <c r="P44" s="1" t="s">
-        <v>347</v>
+        <v>911</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>349</v>
+        <v>339</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
@@ -5600,18 +6102,18 @@
       </c>
       <c r="O45" s="1"/>
       <c r="P45" s="1" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>353</v>
+        <v>343</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
@@ -5621,7 +6123,7 @@
         <v>159</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>107</v>
@@ -5646,28 +6148,28 @@
       </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>358</v>
+        <v>347</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>107</v>
@@ -5692,18 +6194,18 @@
       </c>
       <c r="O47" s="1"/>
       <c r="P47" s="1" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>363</v>
+        <v>352</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
@@ -5713,7 +6215,7 @@
         <v>159</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>56</v>
@@ -5738,18 +6240,18 @@
       </c>
       <c r="O48" s="1"/>
       <c r="P48" s="1" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>368</v>
+        <v>357</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>904</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
@@ -5759,10 +6261,10 @@
         <v>159</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>370</v>
+        <v>919</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>40</v>
@@ -5784,18 +6286,18 @@
       </c>
       <c r="O49" s="1"/>
       <c r="P49" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>374</v>
+        <v>361</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
@@ -5805,7 +6307,7 @@
         <v>159</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>56</v>
@@ -5830,18 +6332,18 @@
       </c>
       <c r="O50" s="1"/>
       <c r="P50" s="1" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>379</v>
+        <v>366</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>367</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
@@ -5851,7 +6353,7 @@
         <v>159</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>56</v>
@@ -5876,31 +6378,31 @@
       </c>
       <c r="O51" s="1"/>
       <c r="P51" s="1" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>383</v>
+        <v>370</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>371</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>40</v>
@@ -5922,18 +6424,18 @@
       </c>
       <c r="O52" s="1"/>
       <c r="P52" s="1" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>389</v>
+        <v>376</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
@@ -5943,10 +6445,10 @@
         <v>159</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>40</v>
@@ -5968,18 +6470,18 @@
       </c>
       <c r="O53" s="1"/>
       <c r="P53" s="1" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>395</v>
+        <v>382</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
@@ -5989,10 +6491,10 @@
         <v>159</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>397</v>
+        <v>920</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>20</v>
@@ -6014,18 +6516,18 @@
       </c>
       <c r="O54" s="1"/>
       <c r="P54" s="1" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>400</v>
+        <v>386</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>387</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
@@ -6035,7 +6537,7 @@
         <v>159</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>107</v>
@@ -6060,18 +6562,18 @@
       </c>
       <c r="O55" s="1"/>
       <c r="P55" s="1" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>404</v>
+        <v>390</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
@@ -6081,7 +6583,7 @@
         <v>159</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>107</v>
@@ -6106,28 +6608,28 @@
       </c>
       <c r="O56" s="1"/>
       <c r="P56" s="1" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>408</v>
+        <v>394</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>107</v>
@@ -6152,28 +6654,28 @@
       </c>
       <c r="O57" s="1"/>
       <c r="P57" s="1" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>413</v>
+        <v>399</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>107</v>
@@ -6198,28 +6700,28 @@
       </c>
       <c r="O58" s="1"/>
       <c r="P58" s="1" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>419</v>
+        <v>405</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>107</v>
@@ -6244,28 +6746,28 @@
       </c>
       <c r="O59" s="1"/>
       <c r="P59" s="1" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>424</v>
+        <v>410</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>56</v>
@@ -6290,28 +6792,28 @@
       </c>
       <c r="O60" s="1"/>
       <c r="P60" s="1" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>428</v>
+        <v>414</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>56</v>
@@ -6336,31 +6838,31 @@
       </c>
       <c r="O61" s="1"/>
       <c r="P61" s="1" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>433</v>
+        <v>419</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>420</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>20</v>
@@ -6382,28 +6884,28 @@
       </c>
       <c r="O62" s="1"/>
       <c r="P62" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>438</v>
+        <v>424</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>425</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>107</v>
@@ -6428,28 +6930,28 @@
       </c>
       <c r="O63" s="1"/>
       <c r="P63" s="1" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>442</v>
+        <v>428</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>429</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>107</v>
@@ -6474,28 +6976,28 @@
       </c>
       <c r="O64" s="1"/>
       <c r="P64" s="1" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>446</v>
+        <v>432</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>433</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>448</v>
+        <v>921</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>107</v>
@@ -6520,25 +7022,25 @@
       </c>
       <c r="O65" s="1"/>
       <c r="P65" s="1" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
     </row>
     <row r="66" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>451</v>
+        <v>436</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>437</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>131</v>
@@ -6566,28 +7068,28 @@
       </c>
       <c r="O66" s="1"/>
       <c r="P66" s="1" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>455</v>
+        <v>440</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>56</v>
@@ -6612,25 +7114,25 @@
       </c>
       <c r="O67" s="1"/>
       <c r="P67" s="1" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
     </row>
     <row r="68" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>447</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>18</v>
@@ -6658,28 +7160,28 @@
       </c>
       <c r="O68" s="1"/>
       <c r="P68" s="1" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
     </row>
     <row r="69" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>465</v>
+        <v>450</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>451</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>107</v>
@@ -6704,25 +7206,25 @@
       </c>
       <c r="O69" s="1"/>
       <c r="P69" s="1" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
     </row>
     <row r="70" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>470</v>
+        <v>455</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>456</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>131</v>
@@ -6750,28 +7252,28 @@
       </c>
       <c r="O70" s="1"/>
       <c r="P70" s="1" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
     </row>
     <row r="71" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>205</v>
+        <v>460</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>905</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>89</v>
@@ -6796,28 +7298,28 @@
       </c>
       <c r="O71" s="1"/>
       <c r="P71" s="1" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>478</v>
+        <v>463</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>464</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>89</v>
@@ -6842,28 +7344,28 @@
       </c>
       <c r="O72" s="1"/>
       <c r="P72" s="1" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>482</v>
+        <v>467</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>468</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>89</v>
@@ -6888,28 +7390,28 @@
       </c>
       <c r="O73" s="1"/>
       <c r="P73" s="1" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>486</v>
+        <v>471</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>472</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>89</v>
@@ -6934,31 +7436,31 @@
       </c>
       <c r="O74" s="1"/>
       <c r="P74" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>490</v>
+        <v>475</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>476</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>20</v>
@@ -6980,28 +7482,28 @@
       </c>
       <c r="O75" s="1"/>
       <c r="P75" s="1" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
     </row>
     <row r="76" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>495</v>
+        <v>480</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>89</v>
@@ -7026,28 +7528,28 @@
       </c>
       <c r="O76" s="1"/>
       <c r="P76" s="1" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>499</v>
+        <v>484</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>485</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>89</v>
@@ -7072,28 +7574,28 @@
       </c>
       <c r="O77" s="1"/>
       <c r="P77" s="1" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
     </row>
     <row r="78" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>503</v>
+        <v>488</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>489</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>89</v>
@@ -7118,28 +7620,28 @@
       </c>
       <c r="O78" s="1"/>
       <c r="P78" s="1" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>506</v>
+        <v>491</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>492</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>89</v>
@@ -7164,28 +7666,28 @@
       </c>
       <c r="O79" s="1"/>
       <c r="P79" s="1" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>510</v>
+        <v>495</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>496</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>89</v>
@@ -7210,28 +7712,28 @@
       </c>
       <c r="O80" s="1"/>
       <c r="P80" s="1" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>514</v>
+        <v>499</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>500</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>89</v>
@@ -7256,28 +7758,28 @@
       </c>
       <c r="O81" s="1"/>
       <c r="P81" s="1" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>518</v>
+        <v>503</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>504</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>89</v>
@@ -7302,28 +7804,28 @@
       </c>
       <c r="O82" s="1"/>
       <c r="P82" s="1" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
     </row>
     <row r="83" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>522</v>
+        <v>507</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>508</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>89</v>
@@ -7348,28 +7850,28 @@
       </c>
       <c r="O83" s="1"/>
       <c r="P83" s="1" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
     </row>
     <row r="84" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>526</v>
+        <v>511</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>512</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>89</v>
@@ -7394,25 +7896,25 @@
       </c>
       <c r="O84" s="1"/>
       <c r="P84" s="1" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
     </row>
     <row r="85" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>530</v>
+        <v>515</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>516</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>55</v>
@@ -7440,28 +7942,28 @@
       </c>
       <c r="O85" s="1"/>
       <c r="P85" s="1" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
     </row>
     <row r="86" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>534</v>
+        <v>519</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>520</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>89</v>
@@ -7486,28 +7988,28 @@
       </c>
       <c r="O86" s="1"/>
       <c r="P86" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="87" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>538</v>
+        <v>523</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>524</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>89</v>
@@ -7532,28 +8034,28 @@
       </c>
       <c r="O87" s="1"/>
       <c r="P87" s="1" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>542</v>
+        <v>527</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>528</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>89</v>
@@ -7578,28 +8080,28 @@
       </c>
       <c r="O88" s="1"/>
       <c r="P88" s="1" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>546</v>
+        <v>531</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>532</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>89</v>
@@ -7624,28 +8126,28 @@
       </c>
       <c r="O89" s="1"/>
       <c r="P89" s="1" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>550</v>
+        <v>535</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>89</v>
@@ -7670,28 +8172,28 @@
       </c>
       <c r="O90" s="1"/>
       <c r="P90" s="1" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
     </row>
     <row r="91" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>554</v>
+        <v>539</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>540</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>89</v>
@@ -7716,28 +8218,28 @@
       </c>
       <c r="O91" s="1"/>
       <c r="P91" s="1" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
     </row>
     <row r="92" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>558</v>
+        <v>543</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>544</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>89</v>
@@ -7762,28 +8264,28 @@
       </c>
       <c r="O92" s="1"/>
       <c r="P92" s="1" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
     </row>
     <row r="93" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>562</v>
+        <v>547</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>548</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>89</v>
@@ -7808,28 +8310,28 @@
       </c>
       <c r="O93" s="1"/>
       <c r="P93" s="1" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
     </row>
     <row r="94" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>566</v>
+        <v>551</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>552</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>89</v>
@@ -7854,31 +8356,31 @@
       </c>
       <c r="O94" s="1"/>
       <c r="P94" s="1" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>570</v>
+        <v>555</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>556</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>20</v>
@@ -7900,28 +8402,28 @@
       </c>
       <c r="O95" s="1"/>
       <c r="P95" s="1" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>575</v>
+        <v>560</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>561</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>89</v>
@@ -7946,28 +8448,28 @@
       </c>
       <c r="O96" s="1"/>
       <c r="P96" s="1" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
     </row>
     <row r="97" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>579</v>
+        <v>564</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>565</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>89</v>
@@ -7992,28 +8494,28 @@
       </c>
       <c r="O97" s="1"/>
       <c r="P97" s="1" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>583</v>
+        <v>568</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>569</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>89</v>
@@ -8038,28 +8540,28 @@
       </c>
       <c r="O98" s="1"/>
       <c r="P98" s="1" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
     </row>
     <row r="99" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>587</v>
+        <v>572</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>573</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>29</v>
@@ -8084,28 +8586,28 @@
       </c>
       <c r="O99" s="1"/>
       <c r="P99" s="1" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
     </row>
     <row r="100" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>591</v>
+        <v>576</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>577</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>89</v>
@@ -8130,18 +8632,18 @@
       </c>
       <c r="O100" s="1"/>
       <c r="P100" s="1" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>595</v>
+        <v>580</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>581</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1" t="s">
@@ -8151,7 +8653,7 @@
         <v>159</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>89</v>
@@ -8176,28 +8678,28 @@
       </c>
       <c r="O101" s="1"/>
       <c r="P101" s="1" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>599</v>
+        <v>584</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>585</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>89</v>
@@ -8222,18 +8724,18 @@
       </c>
       <c r="O102" s="1"/>
       <c r="P102" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>603</v>
+        <v>588</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>589</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1" t="s">
@@ -8243,7 +8745,7 @@
         <v>159</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>89</v>
@@ -8268,18 +8770,18 @@
       </c>
       <c r="O103" s="1"/>
       <c r="P103" s="1" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>607</v>
+        <v>592</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>593</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1" t="s">
@@ -8289,7 +8791,7 @@
         <v>159</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>89</v>
@@ -8314,18 +8816,18 @@
       </c>
       <c r="O104" s="1"/>
       <c r="P104" s="1" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
     </row>
     <row r="105" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>611</v>
+        <v>596</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>597</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1" t="s">
@@ -8335,7 +8837,7 @@
         <v>159</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>89</v>
@@ -8360,18 +8862,18 @@
       </c>
       <c r="O105" s="1"/>
       <c r="P105" s="1" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
     </row>
     <row r="106" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>615</v>
+        <v>600</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>601</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1" t="s">
@@ -8381,7 +8883,7 @@
         <v>159</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>89</v>
@@ -8406,18 +8908,18 @@
       </c>
       <c r="O106" s="1"/>
       <c r="P106" s="1" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
     </row>
     <row r="107" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>620</v>
+        <v>605</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1" t="s">
@@ -8427,7 +8929,7 @@
         <v>159</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>89</v>
@@ -8452,18 +8954,18 @@
       </c>
       <c r="O107" s="1"/>
       <c r="P107" s="1" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="108" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>624</v>
+        <v>609</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>610</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1" t="s">
@@ -8473,7 +8975,7 @@
         <v>159</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>89</v>
@@ -8498,18 +9000,18 @@
       </c>
       <c r="O108" s="1"/>
       <c r="P108" s="1" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>628</v>
+        <v>613</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>614</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1" t="s">
@@ -8519,7 +9021,7 @@
         <v>159</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>89</v>
@@ -8544,18 +9046,18 @@
       </c>
       <c r="O109" s="1"/>
       <c r="P109" s="1" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
     </row>
     <row r="110" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>632</v>
+        <v>617</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>618</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1" t="s">
@@ -8565,7 +9067,7 @@
         <v>159</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>634</v>
+        <v>918</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>89</v>
@@ -8590,18 +9092,18 @@
       </c>
       <c r="O110" s="1"/>
       <c r="P110" s="1" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
     </row>
     <row r="111" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>637</v>
+        <v>621</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>622</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1" t="s">
@@ -8611,7 +9113,7 @@
         <v>159</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>89</v>
@@ -8636,18 +9138,18 @@
       </c>
       <c r="O111" s="1"/>
       <c r="P111" s="1" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
     </row>
     <row r="112" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>641</v>
+        <v>625</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>626</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1" t="s">
@@ -8657,7 +9159,7 @@
         <v>159</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>355</v>
+        <v>917</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>89</v>
@@ -8682,25 +9184,25 @@
       </c>
       <c r="O112" s="1"/>
       <c r="P112" s="1" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
     </row>
     <row r="113" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>645</v>
+        <v>629</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>630</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>131</v>
@@ -8728,18 +9230,18 @@
       </c>
       <c r="O113" s="1"/>
       <c r="P113" s="1" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
     </row>
     <row r="114" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>649</v>
+        <v>633</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>634</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1" t="s">
@@ -8749,7 +9251,7 @@
         <v>159</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>87</v>
@@ -8774,18 +9276,18 @@
       </c>
       <c r="O114" s="1"/>
       <c r="P114" s="1" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
     </row>
     <row r="115" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>654</v>
+        <v>638</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>639</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1" t="s">
@@ -8820,18 +9322,18 @@
       </c>
       <c r="O115" s="1"/>
       <c r="P115" s="1" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
     </row>
     <row r="116" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>658</v>
+        <v>642</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>643</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1" t="s">
@@ -8866,18 +9368,18 @@
       </c>
       <c r="O116" s="1"/>
       <c r="P116" s="1" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
     </row>
     <row r="117" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>662</v>
+        <v>646</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>647</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1" t="s">
@@ -8912,25 +9414,25 @@
       </c>
       <c r="O117" s="1"/>
       <c r="P117" s="1" t="s">
-        <v>664</v>
+        <v>649</v>
       </c>
     </row>
     <row r="118" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>666</v>
+        <v>650</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>651</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>131</v>
@@ -8958,18 +9460,18 @@
       </c>
       <c r="O118" s="1"/>
       <c r="P118" s="1" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
     </row>
     <row r="119" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>670</v>
+        <v>654</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>655</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1" t="s">
@@ -9004,18 +9506,18 @@
       </c>
       <c r="O119" s="1"/>
       <c r="P119" s="1" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
     </row>
     <row r="120" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>674</v>
+        <v>658</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>659</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1" t="s">
@@ -9050,18 +9552,18 @@
       </c>
       <c r="O120" s="1"/>
       <c r="P120" s="1" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
     </row>
     <row r="121" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>678</v>
+        <v>662</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>663</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1" t="s">
@@ -9096,18 +9598,18 @@
       </c>
       <c r="O121" s="1"/>
       <c r="P121" s="1" t="s">
-        <v>680</v>
+        <v>665</v>
       </c>
     </row>
     <row r="122" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>682</v>
+        <v>666</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>667</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>683</v>
+        <v>668</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1" t="s">
@@ -9142,18 +9644,18 @@
       </c>
       <c r="O122" s="1"/>
       <c r="P122" s="1" t="s">
-        <v>684</v>
+        <v>669</v>
       </c>
     </row>
     <row r="123" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>686</v>
+        <v>670</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>671</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1" t="s">
@@ -9163,7 +9665,7 @@
         <v>159</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>688</v>
+        <v>909</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>87</v>
@@ -9188,28 +9690,28 @@
       </c>
       <c r="O123" s="1"/>
       <c r="P123" s="1" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
     </row>
     <row r="124" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>691</v>
+        <v>674</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>675</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>87</v>
@@ -9234,18 +9736,18 @@
       </c>
       <c r="O124" s="1"/>
       <c r="P124" s="1" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
     </row>
     <row r="125" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>696</v>
+        <v>679</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>680</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1" t="s">
@@ -9258,7 +9760,7 @@
         <v>131</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>20</v>
@@ -9280,28 +9782,28 @@
       </c>
       <c r="O125" s="1"/>
       <c r="P125" s="1" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
     </row>
     <row r="126" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>701</v>
+        <v>684</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>685</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>87</v>
@@ -9326,18 +9828,18 @@
       </c>
       <c r="O126" s="1"/>
       <c r="P126" s="1" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
     </row>
     <row r="127" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>707</v>
+        <v>690</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1" t="s">
@@ -9372,18 +9874,18 @@
       </c>
       <c r="O127" s="1"/>
       <c r="P127" s="1" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
     </row>
     <row r="128" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>711</v>
+        <v>694</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>695</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1" t="s">
@@ -9418,18 +9920,18 @@
       </c>
       <c r="O128" s="1"/>
       <c r="P128" s="1" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
     </row>
     <row r="129" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>715</v>
+        <v>698</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>699</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1" t="s">
@@ -9442,7 +9944,7 @@
         <v>18</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>20</v>
@@ -9464,18 +9966,18 @@
       </c>
       <c r="O129" s="1"/>
       <c r="P129" s="1" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
     </row>
     <row r="130" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>719</v>
+        <v>702</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>703</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1" t="s">
@@ -9485,7 +9987,7 @@
         <v>159</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>87</v>
@@ -9510,18 +10012,18 @@
       </c>
       <c r="O130" s="1"/>
       <c r="P130" s="1" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="131" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>723</v>
+        <v>706</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>707</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1" t="s">
@@ -9556,18 +10058,18 @@
       </c>
       <c r="O131" s="1"/>
       <c r="P131" s="1" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
     </row>
     <row r="132" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>727</v>
+        <v>710</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>906</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1" t="s">
@@ -9602,18 +10104,18 @@
       </c>
       <c r="O132" s="1"/>
       <c r="P132" s="1" t="s">
-        <v>729</v>
+        <v>712</v>
       </c>
     </row>
     <row r="133" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>731</v>
+        <v>713</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>714</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>732</v>
+        <v>715</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1" t="s">
@@ -9623,10 +10125,10 @@
         <v>159</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>733</v>
+        <v>716</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>734</v>
+        <v>717</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>20</v>
@@ -9648,18 +10150,18 @@
       </c>
       <c r="O133" s="1"/>
       <c r="P133" s="1" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
     </row>
     <row r="134" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>737</v>
+        <v>719</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>720</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>738</v>
+        <v>721</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1" t="s">
@@ -9669,10 +10171,10 @@
         <v>159</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>733</v>
+        <v>716</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>739</v>
+        <v>722</v>
       </c>
       <c r="I134" s="1" t="s">
         <v>20</v>
@@ -9694,18 +10196,18 @@
       </c>
       <c r="O134" s="1"/>
       <c r="P134" s="1" t="s">
-        <v>740</v>
+        <v>723</v>
       </c>
     </row>
     <row r="135" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>742</v>
+        <v>724</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>725</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>743</v>
+        <v>726</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1" t="s">
@@ -9740,18 +10242,18 @@
       </c>
       <c r="O135" s="1"/>
       <c r="P135" s="1" t="s">
-        <v>744</v>
+        <v>727</v>
       </c>
     </row>
     <row r="136" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>746</v>
+        <v>728</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>729</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>747</v>
+        <v>730</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1" t="s">
@@ -9786,18 +10288,18 @@
       </c>
       <c r="O136" s="1"/>
       <c r="P136" s="1" t="s">
-        <v>748</v>
+        <v>731</v>
       </c>
     </row>
     <row r="137" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>750</v>
+        <v>732</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>733</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>751</v>
+        <v>734</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1" t="s">
@@ -9832,18 +10334,18 @@
       </c>
       <c r="O137" s="1"/>
       <c r="P137" s="1" t="s">
-        <v>752</v>
+        <v>735</v>
       </c>
     </row>
     <row r="138" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>754</v>
+        <v>736</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>737</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>755</v>
+        <v>738</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1" t="s">
@@ -9856,7 +10358,7 @@
         <v>28</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>756</v>
+        <v>739</v>
       </c>
       <c r="I138" s="1" t="s">
         <v>20</v>
@@ -9878,18 +10380,18 @@
       </c>
       <c r="O138" s="1"/>
       <c r="P138" s="1" t="s">
-        <v>757</v>
+        <v>740</v>
       </c>
     </row>
     <row r="139" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>759</v>
+        <v>741</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>742</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>760</v>
+        <v>743</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1" t="s">
@@ -9924,18 +10426,18 @@
       </c>
       <c r="O139" s="1"/>
       <c r="P139" s="1" t="s">
-        <v>761</v>
+        <v>744</v>
       </c>
     </row>
     <row r="140" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>763</v>
+        <v>745</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>746</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>764</v>
+        <v>747</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1" t="s">
@@ -9970,18 +10472,18 @@
       </c>
       <c r="O140" s="1"/>
       <c r="P140" s="1" t="s">
-        <v>765</v>
+        <v>748</v>
       </c>
     </row>
     <row r="141" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>767</v>
+        <v>749</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>750</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>768</v>
+        <v>751</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1" t="s">
@@ -10016,18 +10518,18 @@
       </c>
       <c r="O141" s="1"/>
       <c r="P141" s="1" t="s">
-        <v>769</v>
+        <v>752</v>
       </c>
     </row>
     <row r="142" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>771</v>
+        <v>753</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>754</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>772</v>
+        <v>755</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1" t="s">
@@ -10037,7 +10539,7 @@
         <v>159</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>773</v>
+        <v>756</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>63</v>
@@ -10062,18 +10564,18 @@
       </c>
       <c r="O142" s="1"/>
       <c r="P142" s="1" t="s">
-        <v>774</v>
+        <v>757</v>
       </c>
     </row>
     <row r="143" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>776</v>
+        <v>758</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>759</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>777</v>
+        <v>760</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1" t="s">
@@ -10083,7 +10585,7 @@
         <v>159</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>773</v>
+        <v>756</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>63</v>
@@ -10108,18 +10610,18 @@
       </c>
       <c r="O143" s="1"/>
       <c r="P143" s="1" t="s">
-        <v>778</v>
+        <v>761</v>
       </c>
     </row>
     <row r="144" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>780</v>
+        <v>762</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>763</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1" t="s">
@@ -10154,18 +10656,18 @@
       </c>
       <c r="O144" s="1"/>
       <c r="P144" s="1" t="s">
-        <v>782</v>
+        <v>907</v>
       </c>
     </row>
     <row r="145" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>784</v>
+        <v>765</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>766</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>785</v>
+        <v>767</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1" t="s">
@@ -10200,25 +10702,25 @@
       </c>
       <c r="O145" s="1"/>
       <c r="P145" s="1" t="s">
-        <v>786</v>
+        <v>768</v>
       </c>
     </row>
     <row r="146" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>788</v>
+        <v>769</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>770</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>789</v>
+        <v>771</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>131</v>
@@ -10246,18 +10748,18 @@
       </c>
       <c r="O146" s="1"/>
       <c r="P146" s="1" t="s">
-        <v>790</v>
+        <v>772</v>
       </c>
     </row>
     <row r="147" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>792</v>
+        <v>773</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>774</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>793</v>
+        <v>775</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1" t="s">
@@ -10292,18 +10794,18 @@
       </c>
       <c r="O147" s="1"/>
       <c r="P147" s="1" t="s">
-        <v>794</v>
+        <v>776</v>
       </c>
     </row>
     <row r="148" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>796</v>
+        <v>777</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>778</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>797</v>
+        <v>779</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1" t="s">
@@ -10338,18 +10840,18 @@
       </c>
       <c r="O148" s="1"/>
       <c r="P148" s="1" t="s">
-        <v>798</v>
+        <v>780</v>
       </c>
     </row>
     <row r="149" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>800</v>
+        <v>781</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>782</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>801</v>
+        <v>783</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1" t="s">
@@ -10384,18 +10886,18 @@
       </c>
       <c r="O149" s="1"/>
       <c r="P149" s="1" t="s">
-        <v>802</v>
+        <v>784</v>
       </c>
     </row>
     <row r="150" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>804</v>
+        <v>785</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>786</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>805</v>
+        <v>787</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1" t="s">
@@ -10430,25 +10932,25 @@
       </c>
       <c r="O150" s="1"/>
       <c r="P150" s="1" t="s">
-        <v>806</v>
+        <v>788</v>
       </c>
     </row>
     <row r="151" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>808</v>
+        <v>789</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>790</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>809</v>
+        <v>791</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>131</v>
@@ -10476,25 +10978,25 @@
       </c>
       <c r="O151" s="1"/>
       <c r="P151" s="1" t="s">
-        <v>810</v>
+        <v>792</v>
       </c>
     </row>
     <row r="152" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>812</v>
+        <v>793</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>794</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>813</v>
+        <v>795</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>131</v>
@@ -10522,18 +11024,18 @@
       </c>
       <c r="O152" s="1"/>
       <c r="P152" s="1" t="s">
-        <v>814</v>
+        <v>796</v>
       </c>
     </row>
     <row r="153" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>816</v>
+        <v>797</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>798</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>817</v>
+        <v>799</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1" t="s">
@@ -10568,18 +11070,18 @@
       </c>
       <c r="O153" s="1"/>
       <c r="P153" s="1" t="s">
-        <v>818</v>
+        <v>800</v>
       </c>
     </row>
     <row r="154" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>820</v>
+        <v>801</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>802</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>821</v>
+        <v>803</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1" t="s">
@@ -10614,18 +11116,18 @@
       </c>
       <c r="O154" s="1"/>
       <c r="P154" s="1" t="s">
-        <v>822</v>
+        <v>804</v>
       </c>
     </row>
     <row r="155" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>824</v>
+        <v>805</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>806</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>825</v>
+        <v>807</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1" t="s">
@@ -10638,7 +11140,7 @@
         <v>131</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>826</v>
+        <v>808</v>
       </c>
       <c r="I155" s="1" t="s">
         <v>20</v>
@@ -10660,31 +11162,31 @@
       </c>
       <c r="O155" s="1"/>
       <c r="P155" s="1" t="s">
-        <v>827</v>
+        <v>809</v>
       </c>
     </row>
     <row r="156" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>829</v>
+        <v>810</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>811</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>830</v>
+        <v>812</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>831</v>
+        <v>813</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>832</v>
+        <v>814</v>
       </c>
       <c r="I156" s="1" t="s">
         <v>20</v>
@@ -10706,18 +11208,18 @@
       </c>
       <c r="O156" s="1"/>
       <c r="P156" s="1" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
     </row>
     <row r="157" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>835</v>
+        <v>816</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>817</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>836</v>
+        <v>818</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1" t="s">
@@ -10752,18 +11254,18 @@
       </c>
       <c r="O157" s="1"/>
       <c r="P157" s="1" t="s">
-        <v>837</v>
+        <v>819</v>
       </c>
     </row>
     <row r="158" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>839</v>
+        <v>820</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>821</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>840</v>
+        <v>822</v>
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1" t="s">
@@ -10798,18 +11300,18 @@
       </c>
       <c r="O158" s="1"/>
       <c r="P158" s="1" t="s">
-        <v>841</v>
+        <v>823</v>
       </c>
     </row>
     <row r="159" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>843</v>
+        <v>824</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>825</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>844</v>
+        <v>826</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1" t="s">
@@ -10819,10 +11321,10 @@
         <v>159</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>845</v>
+        <v>922</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>846</v>
+        <v>827</v>
       </c>
       <c r="I159" s="1" t="s">
         <v>30</v>
@@ -10844,18 +11346,18 @@
       </c>
       <c r="O159" s="1"/>
       <c r="P159" s="1" t="s">
-        <v>847</v>
+        <v>828</v>
       </c>
     </row>
     <row r="160" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>849</v>
+        <v>829</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>830</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>850</v>
+        <v>831</v>
       </c>
       <c r="D160" s="1"/>
       <c r="E160" s="1" t="s">
@@ -10890,18 +11392,18 @@
       </c>
       <c r="O160" s="1"/>
       <c r="P160" s="1" t="s">
-        <v>851</v>
+        <v>832</v>
       </c>
     </row>
     <row r="161" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>853</v>
+        <v>833</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>834</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>854</v>
+        <v>835</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1" t="s">
@@ -10936,18 +11438,18 @@
       </c>
       <c r="O161" s="1"/>
       <c r="P161" s="1" t="s">
-        <v>855</v>
+        <v>836</v>
       </c>
     </row>
     <row r="162" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>857</v>
+        <v>837</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>838</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>858</v>
+        <v>839</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1" t="s">
@@ -10960,7 +11462,7 @@
         <v>131</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>859</v>
+        <v>840</v>
       </c>
       <c r="I162" s="1" t="s">
         <v>20</v>
@@ -10982,18 +11484,18 @@
       </c>
       <c r="O162" s="1"/>
       <c r="P162" s="1" t="s">
-        <v>860</v>
+        <v>841</v>
       </c>
     </row>
     <row r="163" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>862</v>
+        <v>842</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>843</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>863</v>
+        <v>844</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1" t="s">
@@ -11028,18 +11530,18 @@
       </c>
       <c r="O163" s="1"/>
       <c r="P163" s="1" t="s">
-        <v>864</v>
+        <v>845</v>
       </c>
     </row>
     <row r="164" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>866</v>
+        <v>846</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>847</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>867</v>
+        <v>848</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1" t="s">
@@ -11052,7 +11554,7 @@
         <v>131</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>859</v>
+        <v>840</v>
       </c>
       <c r="I164" s="1" t="s">
         <v>20</v>
@@ -11074,18 +11576,18 @@
       </c>
       <c r="O164" s="1"/>
       <c r="P164" s="1" t="s">
-        <v>868</v>
+        <v>849</v>
       </c>
     </row>
     <row r="165" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>870</v>
+        <v>850</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>851</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>871</v>
+        <v>852</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1" t="s">
@@ -11120,25 +11622,25 @@
       </c>
       <c r="O165" s="1"/>
       <c r="P165" s="1" t="s">
-        <v>872</v>
+        <v>853</v>
       </c>
     </row>
     <row r="166" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>874</v>
+        <v>854</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>855</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>875</v>
+        <v>856</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>131</v>
@@ -11166,25 +11668,25 @@
       </c>
       <c r="O166" s="1"/>
       <c r="P166" s="1" t="s">
-        <v>876</v>
+        <v>857</v>
       </c>
     </row>
     <row r="167" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>877</v>
+        <v>858</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>878</v>
+        <v>859</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>879</v>
+        <v>860</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>131</v>
@@ -11212,18 +11714,18 @@
       </c>
       <c r="O167" s="1"/>
       <c r="P167" s="1" t="s">
-        <v>880</v>
+        <v>861</v>
       </c>
     </row>
     <row r="168" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>881</v>
+        <v>862</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>882</v>
+        <v>863</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>883</v>
+        <v>864</v>
       </c>
       <c r="D168" s="1"/>
       <c r="E168" s="1" t="s">
@@ -11258,18 +11760,18 @@
       </c>
       <c r="O168" s="1"/>
       <c r="P168" s="1" t="s">
-        <v>884</v>
+        <v>865</v>
       </c>
     </row>
     <row r="169" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>885</v>
+        <v>866</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>886</v>
+        <v>867</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>887</v>
+        <v>868</v>
       </c>
       <c r="D169" s="1"/>
       <c r="E169" s="1" t="s">
@@ -11304,18 +11806,18 @@
       </c>
       <c r="O169" s="1"/>
       <c r="P169" s="1" t="s">
-        <v>888</v>
+        <v>869</v>
       </c>
     </row>
     <row r="170" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>889</v>
+        <v>870</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>890</v>
+        <v>871</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>891</v>
+        <v>872</v>
       </c>
       <c r="D170" s="1"/>
       <c r="E170" s="1" t="s">
@@ -11350,18 +11852,18 @@
       </c>
       <c r="O170" s="1"/>
       <c r="P170" s="1" t="s">
-        <v>892</v>
+        <v>873</v>
       </c>
     </row>
     <row r="171" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>893</v>
+        <v>874</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>895</v>
+        <v>876</v>
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1" t="s">
@@ -11396,18 +11898,18 @@
       </c>
       <c r="O171" s="1"/>
       <c r="P171" s="1" t="s">
-        <v>896</v>
+        <v>877</v>
       </c>
     </row>
     <row r="172" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>897</v>
+        <v>878</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>898</v>
+        <v>879</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>899</v>
+        <v>880</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1" t="s">
@@ -11442,18 +11944,18 @@
       </c>
       <c r="O172" s="1"/>
       <c r="P172" s="1" t="s">
-        <v>900</v>
+        <v>881</v>
       </c>
     </row>
     <row r="173" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>901</v>
+        <v>882</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>902</v>
+        <v>883</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>903</v>
+        <v>884</v>
       </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1" t="s">
@@ -11488,18 +11990,18 @@
       </c>
       <c r="O173" s="1"/>
       <c r="P173" s="1" t="s">
-        <v>904</v>
+        <v>885</v>
       </c>
     </row>
     <row r="174" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>905</v>
+        <v>886</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>906</v>
+        <v>887</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>907</v>
+        <v>888</v>
       </c>
       <c r="D174" s="1"/>
       <c r="E174" s="1" t="s">
@@ -11534,18 +12036,18 @@
       </c>
       <c r="O174" s="1"/>
       <c r="P174" s="1" t="s">
-        <v>908</v>
+        <v>889</v>
       </c>
     </row>
     <row r="175" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>909</v>
+        <v>890</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>910</v>
+        <v>891</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>911</v>
+        <v>892</v>
       </c>
       <c r="D175" s="1"/>
       <c r="E175" s="1" t="s">
@@ -11580,18 +12082,18 @@
       </c>
       <c r="O175" s="1"/>
       <c r="P175" s="1" t="s">
-        <v>912</v>
+        <v>893</v>
       </c>
     </row>
     <row r="176" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>913</v>
+        <v>894</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>914</v>
+        <v>895</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>915</v>
+        <v>896</v>
       </c>
       <c r="D176" s="1"/>
       <c r="E176" s="1" t="s">
@@ -11626,18 +12128,18 @@
       </c>
       <c r="O176" s="1"/>
       <c r="P176" s="1" t="s">
-        <v>916</v>
+        <v>897</v>
       </c>
     </row>
     <row r="177" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>917</v>
+        <v>898</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>918</v>
+        <v>899</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>919</v>
+        <v>900</v>
       </c>
       <c r="D177" s="1"/>
       <c r="E177" s="1" t="s">
@@ -11650,7 +12152,7 @@
         <v>131</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>920</v>
+        <v>901</v>
       </c>
       <c r="I177" s="1" t="s">
         <v>20</v>
@@ -11672,71 +12174,76 @@
       </c>
       <c r="O177" s="1"/>
       <c r="P177" s="1" t="s">
-        <v>921</v>
+        <v>902</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C28" r:id="rId1" xr:uid="{1711A614-DD56-AD43-8ACC-3935764971BB}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{6C87ABAA-54A2-0941-9B32-79D8EF241F34}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{E6B35813-41E4-A340-9BE0-E13DAEE80BDD}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{14E9D29C-BC20-5B4C-81A5-B6931032293C}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{B49C2E08-D400-9342-B8BC-93E8D7C89349}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{800EF6B9-5CC9-9148-997F-44300E691C5C}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{74D95EC4-D8E0-1D46-A500-F65D23412834}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{6295636E-C9F3-C94E-844E-14F4D4F592FB}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{0416A0B3-059B-414C-A484-5C699E3D48E7}"/>
-    <hyperlink ref="C11" r:id="rId10" location="get-in-contact" xr:uid="{177FAA03-87D3-5C43-8FE4-A5570D1EF9D4}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{99A8423C-AF6F-BA44-BAFE-7986D2CCC164}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{AB446F2B-39C0-F64C-89E9-22C643AF5571}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{9A73FE41-435A-204E-9917-9A0A3456DE36}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{878B60D9-08B7-3E4A-AC0A-D214E82FEF21}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{642D278E-BCAD-FD4F-80A6-B8A31966A6C8}"/>
-    <hyperlink ref="C17" r:id="rId16" location="contact-us" xr:uid="{D477EBCC-BB7D-7841-B9C2-9502D559C181}"/>
-    <hyperlink ref="C18" r:id="rId17" xr:uid="{49930A77-8A6F-FF4F-BCA5-296A41DDDC8D}"/>
-    <hyperlink ref="C19" r:id="rId18" location="contact" xr:uid="{B9147FBA-CE80-3C4A-840E-5EB018C472A9}"/>
-    <hyperlink ref="C20" r:id="rId19" xr:uid="{7F485402-62C2-AB44-A82F-7C5B5D63E261}"/>
-    <hyperlink ref="C21" r:id="rId20" xr:uid="{9F507DE7-2E93-4141-A027-B59A332E8620}"/>
-    <hyperlink ref="C22" r:id="rId21" xr:uid="{5BC76C6E-BEC5-D84A-AC14-1827B158FD8B}"/>
-    <hyperlink ref="C24" r:id="rId22" xr:uid="{8D7A841C-A9FF-EA4E-93DA-30F060E4A8AA}"/>
-    <hyperlink ref="C26" r:id="rId23" xr:uid="{C2E507F5-F9EC-9547-AA18-D4B08BBB64AE}"/>
-    <hyperlink ref="C31" r:id="rId24" xr:uid="{87D3AF83-612C-1742-BC5A-051EFE156715}"/>
-    <hyperlink ref="C32" r:id="rId25" xr:uid="{34B55C91-14E9-4C4D-A46D-9097C98D8593}"/>
-    <hyperlink ref="C33" r:id="rId26" xr:uid="{95590569-32E4-8C44-B898-7C01FFD8C4A3}"/>
-    <hyperlink ref="C34" r:id="rId27" xr:uid="{49145507-CA8C-6646-ACE6-74A9337AA66F}"/>
-    <hyperlink ref="C35" r:id="rId28" xr:uid="{37DFD6AC-CE90-FD44-B01A-86C8885B5177}"/>
-    <hyperlink ref="C36" r:id="rId29" xr:uid="{9D3E19CF-8628-3248-807F-44A7C2B16061}"/>
-    <hyperlink ref="C37" r:id="rId30" xr:uid="{2B3920F2-D47D-A943-BFD3-5F7B735F4110}"/>
-    <hyperlink ref="C38" r:id="rId31" xr:uid="{55B50525-F470-154F-9C40-E83004199F75}"/>
-    <hyperlink ref="C39" r:id="rId32" xr:uid="{C0F81BEC-19A4-B246-9CF1-3B1BFEC7E13E}"/>
-    <hyperlink ref="C40" r:id="rId33" xr:uid="{9052A076-0C3A-9E4D-87A6-51F774D4BD29}"/>
-    <hyperlink ref="C41" r:id="rId34" location="contact" xr:uid="{0774D32A-615D-924B-ACC5-EED3ECD6BAF9}"/>
-    <hyperlink ref="C46" r:id="rId35" xr:uid="{0E91D84D-19B7-F743-BCA5-2A22A84F6FE0}"/>
-    <hyperlink ref="C43" r:id="rId36" xr:uid="{F894C314-4C5D-7A43-8786-BDF71D67AF6A}"/>
-    <hyperlink ref="C45" r:id="rId37" xr:uid="{D8FED7D2-A58F-8A45-8E1A-E2B9B17E568D}"/>
-    <hyperlink ref="C47" r:id="rId38" xr:uid="{72ABEEFB-C432-B745-9E23-A82990D6809E}"/>
-    <hyperlink ref="C48" r:id="rId39" xr:uid="{A0B9A6CB-BF8C-E741-97DE-90A63378315F}"/>
-    <hyperlink ref="C49" r:id="rId40" xr:uid="{25EDC0BA-A31F-A245-9F2F-EFC033CDFCDA}"/>
-    <hyperlink ref="C50" r:id="rId41" xr:uid="{2776D790-C6D4-7B40-9ADB-49F96CE89A96}"/>
-    <hyperlink ref="C51" r:id="rId42" xr:uid="{9C231857-5EDA-5B4E-8523-8D4A35D5D570}"/>
-    <hyperlink ref="C52" r:id="rId43" xr:uid="{F53522A3-6925-5743-9A12-A0612EAD8919}"/>
-    <hyperlink ref="C53" r:id="rId44" xr:uid="{678FC91A-E99F-FE4A-8BFF-8FCAE829FB99}"/>
-    <hyperlink ref="C54" r:id="rId45" xr:uid="{61C19C90-976D-3B44-9B13-1AE18057D2AB}"/>
-    <hyperlink ref="C55" r:id="rId46" location="contact" xr:uid="{2124B697-3569-6946-9A1D-811FF51F1A6D}"/>
-    <hyperlink ref="C56" r:id="rId47" xr:uid="{11089218-ECEA-8843-939A-32E165345E43}"/>
-    <hyperlink ref="C57" r:id="rId48" xr:uid="{116DC906-FEA1-5046-A9E4-6047C9C93D54}"/>
-    <hyperlink ref="C58" r:id="rId49" xr:uid="{E45C4044-6A9C-654D-B151-8759A4E07F58}"/>
-    <hyperlink ref="C59" r:id="rId50" xr:uid="{0E64FCFA-050F-B240-B61C-11C955E3863A}"/>
-    <hyperlink ref="C60" r:id="rId51" xr:uid="{6C7E1C81-CEAD-0E40-B556-F05C5C7A74EA}"/>
-    <hyperlink ref="C61" r:id="rId52" xr:uid="{6B79180D-31E1-8E48-A377-43E83B10CCA4}"/>
-    <hyperlink ref="C62" r:id="rId53" xr:uid="{5C7E0F10-663B-B943-95EF-9402CDB46154}"/>
-    <hyperlink ref="C63" r:id="rId54" xr:uid="{C134E035-B9D9-2342-904A-28768CD0981F}"/>
-    <hyperlink ref="C64" r:id="rId55" xr:uid="{8707FF34-0E4D-2E43-8D7A-8459AC29BE08}"/>
-    <hyperlink ref="C65" r:id="rId56" xr:uid="{20013E21-92AB-274E-BE87-5E2F60559635}"/>
+    <hyperlink ref="C28" r:id="rId1" xr:uid="{D5ADECCF-D5B3-C942-9126-E19DF1547FA7}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{B319A662-9631-8B48-8FB9-59EAA20A7DEF}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{5E860ACB-905F-124C-8F0A-B83A25265DCE}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{28910534-0504-2548-80A8-87DAA43CD0EF}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{1EDB7AAE-4B89-AF4A-ADB5-E1C2C381DE23}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{436211B5-AED2-3949-8EFB-018E5E1B2BEE}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{9B09E69F-EB37-B944-951D-1097F3777B2A}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{F9B2C149-71C9-5E4A-900A-9FE043F039FF}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{0FCA7080-29B0-8549-A951-B96839FBD3A7}"/>
+    <hyperlink ref="C11" r:id="rId10" location="get-in-contact" xr:uid="{01497B60-0400-0F48-B56E-BA9F73060AF5}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{F094E2BA-7470-7F4F-B629-9819928BC5B9}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{D7ABE902-338E-C747-8C06-2AD8B63916B0}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{8E20C239-23C6-BC44-A7B2-85A0CEDAEB46}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{3925194B-A90A-0640-8105-76D94954BFCE}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{2673068E-DEAA-5E4B-B92A-93C29FD6B611}"/>
+    <hyperlink ref="C17" r:id="rId16" location="contact-us" xr:uid="{83BA4A05-E66D-CD4A-B255-A18046F4EB5E}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{07995E5F-F084-9341-90E4-965B1F8A82D4}"/>
+    <hyperlink ref="C19" r:id="rId18" location="contact" xr:uid="{CF236852-A291-A141-BB2F-AB0D4254BD1F}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{174BD3D5-EEA4-8848-9D68-4D61EBE32C8C}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{0C8AF8AB-C572-0342-8653-3541A702D94C}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{587D8893-AFE8-5543-B54D-FD0BB71F5FD3}"/>
+    <hyperlink ref="C24" r:id="rId22" xr:uid="{C316024A-732E-3B46-B0DA-2A9711BC2384}"/>
+    <hyperlink ref="C26" r:id="rId23" xr:uid="{4B8C436A-23B8-EE4D-8F65-1F0D35AB5571}"/>
+    <hyperlink ref="C31" r:id="rId24" xr:uid="{B82FA0EE-3E3B-A041-ADD0-5EA4CE014670}"/>
+    <hyperlink ref="C32" r:id="rId25" xr:uid="{1CDCC670-24C9-364E-8789-657EB44C44FE}"/>
+    <hyperlink ref="C33" r:id="rId26" xr:uid="{553D2095-E622-0E4A-B3A1-A846E4CBD7F2}"/>
+    <hyperlink ref="C34" r:id="rId27" xr:uid="{42D807F2-A2D2-7946-BD2F-5D4A60BB3F1F}"/>
+    <hyperlink ref="C35" r:id="rId28" xr:uid="{A65CCC92-16AD-0F42-85B0-EC5FE2D0C88D}"/>
+    <hyperlink ref="C36" r:id="rId29" xr:uid="{E024007C-7340-5046-BD28-F7C0A9E61B60}"/>
+    <hyperlink ref="C37" r:id="rId30" xr:uid="{A33E5360-D8DB-BB4D-A598-F81786D3D148}"/>
+    <hyperlink ref="C38" r:id="rId31" xr:uid="{FFE6B31C-CC36-F24A-8B09-27BC51EFEDE5}"/>
+    <hyperlink ref="C39" r:id="rId32" xr:uid="{B75DDDA5-E050-144B-A7DB-45240A9B7F69}"/>
+    <hyperlink ref="C40" r:id="rId33" xr:uid="{436DC9AA-98DC-4E48-82FC-1DF2FB298126}"/>
+    <hyperlink ref="C41" r:id="rId34" location="contact" xr:uid="{F5EC4E4D-7BD1-AF42-B472-7B9F787B28BD}"/>
+    <hyperlink ref="C46" r:id="rId35" xr:uid="{8A46B1B7-59BB-4B4E-A707-4DFF12509BF8}"/>
+    <hyperlink ref="C43" r:id="rId36" xr:uid="{6AD61666-B7EA-EF40-8907-7730A70405DE}"/>
+    <hyperlink ref="C45" r:id="rId37" xr:uid="{8973B11C-DCE2-8D44-A9D0-45A8DA4A39FE}"/>
+    <hyperlink ref="C47" r:id="rId38" xr:uid="{4470AA15-F923-B148-BFAF-DB259592FA1C}"/>
+    <hyperlink ref="C48" r:id="rId39" xr:uid="{8FF1AFD6-EC47-3B44-8B58-AA720C84E802}"/>
+    <hyperlink ref="C49" r:id="rId40" xr:uid="{3F9382E9-F4DE-F047-BFB8-9A1620007769}"/>
+    <hyperlink ref="C50" r:id="rId41" xr:uid="{CE2BFB21-09FD-3F46-9D55-123827426687}"/>
+    <hyperlink ref="C51" r:id="rId42" xr:uid="{C47B65B5-775F-DF4C-9016-8B738684289A}"/>
+    <hyperlink ref="C52" r:id="rId43" xr:uid="{F0934195-A8CB-324D-8D84-6D81C3F6CFBA}"/>
+    <hyperlink ref="C53" r:id="rId44" xr:uid="{AB48AF68-CBAC-F04E-B096-E7A26CA89482}"/>
+    <hyperlink ref="C54" r:id="rId45" xr:uid="{E45C5247-CA63-E446-B39E-F821460CF896}"/>
+    <hyperlink ref="C55" r:id="rId46" location="contact" xr:uid="{37990380-35C7-4345-9015-72559771442C}"/>
+    <hyperlink ref="C56" r:id="rId47" xr:uid="{50C4077A-29E7-DB4C-861F-D1A4D756564A}"/>
+    <hyperlink ref="C57" r:id="rId48" xr:uid="{CBD2920B-535C-EF41-8A37-8AF1A4FD6F31}"/>
+    <hyperlink ref="C58" r:id="rId49" xr:uid="{CC0CCCAD-FBE9-0D45-936C-4E346242281F}"/>
+    <hyperlink ref="C59" r:id="rId50" xr:uid="{5C88D625-3A53-CD41-9036-82F702EBFF76}"/>
+    <hyperlink ref="C60" r:id="rId51" xr:uid="{09096F5F-7638-1446-BAD3-562661D2A49A}"/>
+    <hyperlink ref="C61" r:id="rId52" xr:uid="{E725C561-495B-DF4D-8FC1-5155B4F2262C}"/>
+    <hyperlink ref="C62" r:id="rId53" xr:uid="{45E6EE2E-FE53-E845-961F-CC4C31647699}"/>
+    <hyperlink ref="C63" r:id="rId54" xr:uid="{D253DB68-4F3D-EB4C-BECD-A7B7007AF748}"/>
+    <hyperlink ref="C64" r:id="rId55" xr:uid="{45513FEB-633E-0042-81DE-1FBFA946DFAC}"/>
+    <hyperlink ref="C65" r:id="rId56" xr:uid="{C1C3E7E2-57D4-DE45-98B8-4839263F2A33}"/>
+    <hyperlink ref="B49" r:id="rId57" xr:uid="{F45FCF1C-7534-5042-85D2-DCFD766C050B}"/>
+    <hyperlink ref="B44" r:id="rId58" xr:uid="{D62C5111-D4EC-D94A-B906-002B425DFAF0}"/>
+    <hyperlink ref="B71" r:id="rId59" xr:uid="{D273B608-77E1-9D4A-8A52-0D3161DABF3C}"/>
+    <hyperlink ref="B132" r:id="rId60" xr:uid="{46FF7137-D9B8-8841-BE82-F601E15D8288}"/>
+    <hyperlink ref="B144" r:id="rId61" xr:uid="{2426D3B1-A432-1743-BE00-76A65D6577D2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-  <legacyDrawing r:id="rId57"/>
+  <legacyDrawing r:id="rId62"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
@@ -11744,61 +12251,61 @@
           <x14:formula1>
             <xm:f>ValidationData!$E$1:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E178:E1000</xm:sqref>
+          <xm:sqref>E178:E824</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Guidance" error="Select a value from the list, or enter multiple values separated by commas or semicolons." xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>ValidationData!$F$1:$F$7</xm:f>
           </x14:formula1>
-          <xm:sqref>F178:F1000</xm:sqref>
+          <xm:sqref>F178:F824</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Guidance" error="Select a value from the list, or enter multiple values separated by commas or semicolons." xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>ValidationData!$G$1:$G$52</xm:f>
           </x14:formula1>
-          <xm:sqref>G178:G1000</xm:sqref>
+          <xm:sqref>G178:G824</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Guidance" error="Select a value from the list, or enter multiple values separated by commas or semicolons." xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
             <xm:f>ValidationData!$H$1:$H$31</xm:f>
           </x14:formula1>
-          <xm:sqref>H178:H1000</xm:sqref>
+          <xm:sqref>H178:H824</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Guidance" error="Please select a value from the dropdown list." xr:uid="{00000000-0002-0000-0000-000008000000}">
           <x14:formula1>
             <xm:f>ValidationData!$I$1:$I$3</xm:f>
           </x14:formula1>
-          <xm:sqref>I178:I1000</xm:sqref>
+          <xm:sqref>I178:I824</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Guidance" error="Please select a value from the dropdown list." xr:uid="{00000000-0002-0000-0000-00000A000000}">
           <x14:formula1>
             <xm:f>ValidationData!$J$1:$J$4</xm:f>
           </x14:formula1>
-          <xm:sqref>J178:J1000</xm:sqref>
+          <xm:sqref>J178:J824</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Guidance" error="Select a value from the list, or enter multiple values separated by commas or semicolons." xr:uid="{00000000-0002-0000-0000-00000C000000}">
           <x14:formula1>
             <xm:f>ValidationData!$K$1:$K$4</xm:f>
           </x14:formula1>
-          <xm:sqref>K178:K1000</xm:sqref>
+          <xm:sqref>K178:K824</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Guidance" error="Please select a value from the dropdown list." xr:uid="{00000000-0002-0000-0000-00000E000000}">
           <x14:formula1>
             <xm:f>ValidationData!$L$1:$L$5</xm:f>
           </x14:formula1>
-          <xm:sqref>L178:L1000</xm:sqref>
+          <xm:sqref>L178:L824</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Guidance" error="Please select a value from the dropdown list." xr:uid="{00000000-0002-0000-0000-000010000000}">
           <x14:formula1>
             <xm:f>ValidationData!$M$1:$M$4</xm:f>
           </x14:formula1>
-          <xm:sqref>M178:M1000</xm:sqref>
+          <xm:sqref>M178:M824</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Guidance" error="Please select a value from the dropdown list." xr:uid="{00000000-0002-0000-0000-000012000000}">
           <x14:formula1>
             <xm:f>ValidationData!$N$1:$N$4</xm:f>
           </x14:formula1>
-          <xm:sqref>N178:N1000</xm:sqref>
+          <xm:sqref>N178:N824</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
